--- a/documentation/Selecting Model.xlsx
+++ b/documentation/Selecting Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Concordia\AAI - 6721\AAI Project Self\lung-disease-classification\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lung-disease-classification\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83658CF4-2EC7-413C-9241-328ECB1D42FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0948BE49-85C0-461A-9DDD-F24261DA93C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0726CDDD-14A4-4F39-ADED-EA1030892F20}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{0726CDDD-14A4-4F39-ADED-EA1030892F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="122">
   <si>
     <t>Weight</t>
   </si>
@@ -47,237 +47,132 @@
     <t>Acc@5</t>
   </si>
   <si>
-    <t>Params</t>
-  </si>
-  <si>
     <t>Recipe</t>
   </si>
   <si>
     <t>AlexNet_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>61.1M</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
     <t>ConvNeXt_Base_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>88.6M</t>
-  </si>
-  <si>
     <t>ConvNeXt_Large_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>197.8M</t>
-  </si>
-  <si>
     <t>ConvNeXt_Small_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>50.2M</t>
-  </si>
-  <si>
     <t>ConvNeXt_Tiny_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>28.6M</t>
-  </si>
-  <si>
     <t>DenseNet121_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>8.0M</t>
-  </si>
-  <si>
     <t>DenseNet161_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>28.7M</t>
-  </si>
-  <si>
     <t>DenseNet169_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>14.1M</t>
-  </si>
-  <si>
     <t>DenseNet201_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>20.0M</t>
-  </si>
-  <si>
     <t>EfficientNet_B0_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>5.3M</t>
-  </si>
-  <si>
     <t>EfficientNet_B1_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>7.8M</t>
-  </si>
-  <si>
     <t>EfficientNet_B1_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>EfficientNet_B2_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>9.1M</t>
-  </si>
-  <si>
     <t>EfficientNet_B3_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>12.2M</t>
-  </si>
-  <si>
     <t>EfficientNet_B4_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>19.3M</t>
-  </si>
-  <si>
     <t>EfficientNet_B5_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>30.4M</t>
-  </si>
-  <si>
     <t>EfficientNet_B6_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>43.0M</t>
-  </si>
-  <si>
     <t>EfficientNet_B7_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>66.3M</t>
-  </si>
-  <si>
     <t>EfficientNet_V2_L_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>118.5M</t>
-  </si>
-  <si>
     <t>EfficientNet_V2_M_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>54.1M</t>
-  </si>
-  <si>
     <t>EfficientNet_V2_S_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>21.5M</t>
-  </si>
-  <si>
     <t>GoogLeNet_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>6.6M</t>
-  </si>
-  <si>
     <t>Inception_V3_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>27.2M</t>
-  </si>
-  <si>
     <t>MNASNet0_5_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>2.2M</t>
-  </si>
-  <si>
     <t>MNASNet0_75_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>3.2M</t>
-  </si>
-  <si>
     <t>MNASNet1_0_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>4.4M</t>
-  </si>
-  <si>
     <t>MNASNet1_3_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>6.3M</t>
-  </si>
-  <si>
     <t>MaxVit_T_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>30.9M</t>
-  </si>
-  <si>
     <t>MobileNet_V2_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>3.5M</t>
-  </si>
-  <si>
     <t>MobileNet_V2_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>MobileNet_V3_Large_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>5.5M</t>
-  </si>
-  <si>
     <t>MobileNet_V3_Large_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>MobileNet_V3_Small_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>2.5M</t>
-  </si>
-  <si>
     <t>RegNet_X_16GF_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>54.3M</t>
-  </si>
-  <si>
     <t>RegNet_X_16GF_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>RegNet_X_1_6GF_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>9.2M</t>
-  </si>
-  <si>
     <t>RegNet_X_1_6GF_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>RegNet_X_32GF_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>107.8M</t>
-  </si>
-  <si>
     <t>RegNet_X_32GF_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>RegNet_X_3_2GF_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>15.3M</t>
-  </si>
-  <si>
     <t>RegNet_X_3_2GF_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
@@ -290,36 +185,24 @@
     <t>RegNet_X_800MF_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>7.3M</t>
-  </si>
-  <si>
     <t>RegNet_X_800MF_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>RegNet_X_8GF_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>39.6M</t>
-  </si>
-  <si>
     <t>RegNet_X_8GF_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>RegNet_Y_128GF_Weights.IMAGENET1K_SWAG_E2E_V1</t>
   </si>
   <si>
-    <t>644.8M</t>
-  </si>
-  <si>
     <t>RegNet_Y_128GF_Weights.IMAGENET1K_SWAG_LINEAR_V1</t>
   </si>
   <si>
     <t>RegNet_Y_16GF_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>83.6M</t>
-  </si>
-  <si>
     <t>RegNet_Y_16GF_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
@@ -332,18 +215,12 @@
     <t>RegNet_Y_1_6GF_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>11.2M</t>
-  </si>
-  <si>
     <t>RegNet_Y_1_6GF_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>RegNet_Y_32GF_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>145.0M</t>
-  </si>
-  <si>
     <t>RegNet_Y_32GF_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
@@ -356,195 +233,117 @@
     <t>RegNet_Y_3_2GF_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>19.4M</t>
-  </si>
-  <si>
     <t>RegNet_Y_3_2GF_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>RegNet_Y_400MF_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>4.3M</t>
-  </si>
-  <si>
     <t>RegNet_Y_400MF_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>RegNet_Y_800MF_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>6.4M</t>
-  </si>
-  <si>
     <t>RegNet_Y_800MF_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>RegNet_Y_8GF_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>39.4M</t>
-  </si>
-  <si>
     <t>RegNet_Y_8GF_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>ResNeXt101_32X8D_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>88.8M</t>
-  </si>
-  <si>
     <t>ResNeXt101_32X8D_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>ResNeXt101_64X4D_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>83.5M</t>
-  </si>
-  <si>
     <t>ResNeXt50_32X4D_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>25.0M</t>
-  </si>
-  <si>
     <t>ResNeXt50_32X4D_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>ResNet101_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>44.5M</t>
-  </si>
-  <si>
     <t>ResNet101_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>ResNet152_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>60.2M</t>
-  </si>
-  <si>
     <t>ResNet152_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>ResNet18_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>11.7M</t>
-  </si>
-  <si>
     <t>ResNet34_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>21.8M</t>
-  </si>
-  <si>
     <t>ResNet50_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>25.6M</t>
-  </si>
-  <si>
     <t>ResNet50_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>ShuffleNet_V2_X0_5_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>1.4M</t>
-  </si>
-  <si>
     <t>ShuffleNet_V2_X1_0_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>2.3M</t>
-  </si>
-  <si>
     <t>ShuffleNet_V2_X1_5_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
     <t>ShuffleNet_V2_X2_0_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>7.4M</t>
-  </si>
-  <si>
     <t>SqueezeNet1_0_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>1.2M</t>
-  </si>
-  <si>
     <t>SqueezeNet1_1_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
     <t>Swin_B_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>87.8M</t>
-  </si>
-  <si>
     <t>Swin_S_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>49.6M</t>
-  </si>
-  <si>
     <t>Swin_T_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>28.3M</t>
-  </si>
-  <si>
     <t>Swin_V2_B_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>87.9M</t>
-  </si>
-  <si>
     <t>Swin_V2_S_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>49.7M</t>
-  </si>
-  <si>
     <t>Swin_V2_T_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>28.4M</t>
-  </si>
-  <si>
     <t>VGG11_BN_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>132.9M</t>
-  </si>
-  <si>
     <t>VGG11_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
     <t>VGG13_BN_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>133.1M</t>
-  </si>
-  <si>
     <t>VGG13_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>133.0M</t>
-  </si>
-  <si>
     <t>VGG16_BN_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>138.4M</t>
-  </si>
-  <si>
     <t>VGG16_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
@@ -557,130 +356,49 @@
     <t>VGG19_BN_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>143.7M</t>
-  </si>
-  <si>
     <t>VGG19_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
     <t>ViT_B_16_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>86.6M</t>
-  </si>
-  <si>
     <t>ViT_B_16_Weights.IMAGENET1K_SWAG_E2E_V1</t>
   </si>
   <si>
-    <t>86.9M</t>
-  </si>
-  <si>
     <t>ViT_B_16_Weights.IMAGENET1K_SWAG_LINEAR_V1</t>
   </si>
   <si>
     <t>ViT_B_32_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>88.2M</t>
-  </si>
-  <si>
     <t>ViT_H_14_Weights.IMAGENET1K_SWAG_E2E_V1</t>
   </si>
   <si>
-    <t>633.5M</t>
-  </si>
-  <si>
     <t>ViT_H_14_Weights.IMAGENET1K_SWAG_LINEAR_V1</t>
   </si>
   <si>
-    <t>632.0M</t>
-  </si>
-  <si>
     <t>ViT_L_16_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>304.3M</t>
-  </si>
-  <si>
     <t>ViT_L_16_Weights.IMAGENET1K_SWAG_E2E_V1</t>
   </si>
   <si>
-    <t>305.2M</t>
-  </si>
-  <si>
     <t>ViT_L_16_Weights.IMAGENET1K_SWAG_LINEAR_V1</t>
   </si>
   <si>
     <t>ViT_L_32_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>306.5M</t>
-  </si>
-  <si>
     <t>Wide_ResNet101_2_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>126.9M</t>
-  </si>
-  <si>
     <t>Wide_ResNet101_2_Weights.IMAGENET1K_V2</t>
   </si>
   <si>
     <t>Wide_ResNet50_2_Weights.IMAGENET1K_V1</t>
   </si>
   <si>
-    <t>68.9M</t>
-  </si>
-  <si>
     <t>Wide_ResNet50_2_Weights.IMAGENET1K_V2</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>132.9</t>
-  </si>
-  <si>
-    <t>138.4</t>
-  </si>
-  <si>
-    <t>197.8</t>
-  </si>
-  <si>
-    <t>19.4</t>
-  </si>
-  <si>
-    <t>19.3</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>145.0</t>
-  </si>
-  <si>
-    <t>143.7</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>133.1</t>
-  </si>
-  <si>
-    <t>126.9</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>118.5</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>107.8</t>
   </si>
   <si>
     <t>Million Params</t>
@@ -1109,7 +827,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A47" sqref="A46:XFD47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1131,15 +851,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="B2" s="3">
         <v>58.091999999999999</v>
@@ -1151,12 +871,12 @@
         <v>1.2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="B3" s="5">
         <v>58.177999999999997</v>
@@ -1168,12 +888,12 @@
         <v>1.2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3">
         <v>60.552</v>
@@ -1185,12 +905,12 @@
         <v>1.4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <v>67.733999999999995</v>
@@ -1202,12 +922,12 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5">
         <v>69.361999999999995</v>
@@ -1219,12 +939,12 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3">
         <v>67.668000000000006</v>
@@ -1236,12 +956,12 @@
         <v>2.5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3">
         <v>71.180000000000007</v>
@@ -1253,12 +973,12 @@
         <v>3.2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3">
         <v>71.878</v>
@@ -1270,12 +990,12 @@
         <v>3.5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5">
         <v>72.153999999999996</v>
@@ -1287,12 +1007,12 @@
         <v>3.5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3">
         <v>72.995999999999995</v>
@@ -1304,12 +1024,12 @@
         <v>3.5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5">
         <v>74.046000000000006</v>
@@ -1321,12 +1041,12 @@
         <v>4.3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="B13" s="3">
         <v>75.804000000000002</v>
@@ -1338,12 +1058,12 @@
         <v>4.3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5">
         <v>73.456000000000003</v>
@@ -1355,12 +1075,12 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5">
         <v>77.691999999999993</v>
@@ -1372,12 +1092,12 @@
         <v>5.3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3">
         <v>74.042000000000002</v>
@@ -1389,12 +1109,12 @@
         <v>5.5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B17" s="5">
         <v>75.274000000000001</v>
@@ -1406,12 +1126,12 @@
         <v>5.5</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B18" s="5">
         <v>72.834000000000003</v>
@@ -1423,12 +1143,12 @@
         <v>5.5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3">
         <v>74.864000000000004</v>
@@ -1440,12 +1160,12 @@
         <v>5.5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
         <v>76.506</v>
@@ -1457,12 +1177,12 @@
         <v>6.3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="B21" s="3">
         <v>78.828000000000003</v>
@@ -1474,12 +1194,12 @@
         <v>6.4</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B22" s="5">
         <v>76.42</v>
@@ -1491,12 +1211,12 @@
         <v>6.4</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B23" s="5">
         <v>69.778000000000006</v>
@@ -1508,12 +1228,12 @@
         <v>6.6</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3">
         <v>77.522000000000006</v>
@@ -1525,12 +1245,12 @@
         <v>7.3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B25" s="5">
         <v>75.212000000000003</v>
@@ -1542,12 +1262,12 @@
         <v>7.3</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="B26" s="5">
         <v>76.23</v>
@@ -1559,12 +1279,12 @@
         <v>7.4</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B27" s="5">
         <v>79.837999999999994</v>
@@ -1576,12 +1296,12 @@
         <v>7.8</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B28" s="3">
         <v>78.641999999999996</v>
@@ -1593,12 +1313,12 @@
         <v>7.8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B29" s="5">
         <v>74.433999999999997</v>
@@ -1610,12 +1330,12 @@
         <v>8</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B30" s="3">
         <v>80.608000000000004</v>
@@ -1627,12 +1347,12 @@
         <v>9.1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3">
         <v>79.668000000000006</v>
@@ -1644,12 +1364,12 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B32" s="5">
         <v>77.040000000000006</v>
@@ -1661,12 +1381,12 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B33" s="5">
         <v>77.95</v>
@@ -1678,12 +1398,12 @@
         <v>11.2</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B34" s="3">
         <v>80.876000000000005</v>
@@ -1695,12 +1415,12 @@
         <v>11.2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B35" s="3">
         <v>69.757999999999996</v>
@@ -1712,12 +1432,12 @@
         <v>11.7</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B36" s="5">
         <v>82.007999999999996</v>
@@ -1729,12 +1449,12 @@
         <v>12.2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B37" s="5">
         <v>75.599999999999994</v>
@@ -1746,12 +1466,12 @@
         <v>14.1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B38" s="5">
         <v>78.364000000000004</v>
@@ -1763,12 +1483,12 @@
         <v>15.3</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3">
         <v>81.195999999999998</v>
@@ -1780,12 +1500,12 @@
         <v>15.3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B40" s="3">
         <v>83.384</v>
@@ -1797,12 +1517,12 @@
         <v>19.3</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B41" s="5">
         <v>78.947999999999993</v>
@@ -1814,12 +1534,12 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3">
         <v>81.981999999999999</v>
@@ -1831,12 +1551,12 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B43" s="3">
         <v>76.896000000000001</v>
@@ -1848,12 +1568,12 @@
         <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B44" s="3">
         <v>84.227999999999994</v>
@@ -1865,12 +1585,12 @@
         <v>21.5</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>133</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B45" s="5">
         <v>73.313999999999993</v>
@@ -1882,12 +1602,12 @@
         <v>21.8</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B46" s="3">
         <v>77.617999999999995</v>
@@ -1899,12 +1619,12 @@
         <v>25</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="B47" s="5">
         <v>81.197999999999993</v>
@@ -1916,12 +1636,12 @@
         <v>25</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="B48" s="3">
         <v>76.13</v>
@@ -1933,12 +1653,12 @@
         <v>25.6</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="B49" s="5">
         <v>80.858000000000004</v>
@@ -1950,12 +1670,12 @@
         <v>25.6</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B50" s="3">
         <v>77.293999999999997</v>
@@ -1967,12 +1687,12 @@
         <v>27.2</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="B51" s="3">
         <v>81.474000000000004</v>
@@ -1984,12 +1704,12 @@
         <v>28.3</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="B52" s="5">
         <v>82.072000000000003</v>
@@ -2001,12 +1721,12 @@
         <v>28.4</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B53" s="3">
         <v>82.52</v>
@@ -2018,12 +1738,12 @@
         <v>28.6</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B54" s="3">
         <v>77.138000000000005</v>
@@ -2035,12 +1755,12 @@
         <v>28.7</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B55" s="5">
         <v>83.444000000000003</v>
@@ -2052,12 +1772,12 @@
         <v>30.4</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B56" s="5">
         <v>83.7</v>
@@ -2069,12 +1789,12 @@
         <v>30.9</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="B57" s="5">
         <v>80.031999999999996</v>
@@ -2086,12 +1806,12 @@
         <v>39.4</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="B58" s="3">
         <v>82.828000000000003</v>
@@ -2103,12 +1823,12 @@
         <v>39.4</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B59" s="5">
         <v>79.343999999999994</v>
@@ -2120,12 +1840,12 @@
         <v>39.6</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B60" s="3">
         <v>81.682000000000002</v>
@@ -2137,12 +1857,12 @@
         <v>39.6</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B61" s="3">
         <v>84.007999999999996</v>
@@ -2154,12 +1874,12 @@
         <v>43</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B62" s="3">
         <v>77.373999999999995</v>
@@ -2171,12 +1891,12 @@
         <v>44.5</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="B63" s="5">
         <v>81.885999999999996</v>
@@ -2188,12 +1908,12 @@
         <v>44.5</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B64" s="5">
         <v>83.195999999999998</v>
@@ -2205,12 +1925,12 @@
         <v>49.6</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="B65" s="3">
         <v>83.712000000000003</v>
@@ -2222,12 +1942,12 @@
         <v>49.7</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B66" s="5">
         <v>83.616</v>
@@ -2239,12 +1959,12 @@
         <v>50.2</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B67" s="5">
         <v>85.111999999999995</v>
@@ -2256,12 +1976,12 @@
         <v>54.1</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B68" s="5">
         <v>80.058000000000007</v>
@@ -2273,12 +1993,12 @@
         <v>54.3</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B69" s="3">
         <v>82.715999999999994</v>
@@ -2290,12 +2010,12 @@
         <v>54.3</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="B70" s="3">
         <v>78.311999999999998</v>
@@ -2307,12 +2027,12 @@
         <v>60.2</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="B71" s="5">
         <v>82.284000000000006</v>
@@ -2324,12 +2044,12 @@
         <v>60.2</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" s="3">
         <v>56.521999999999998</v>
@@ -2341,12 +2061,12 @@
         <v>61.1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B73" s="5">
         <v>84.122</v>
@@ -2358,12 +2078,12 @@
         <v>66.3</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="B74" s="5">
         <v>78.468000000000004</v>
@@ -2375,12 +2095,12 @@
         <v>68.900000000000006</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="B75" s="3">
         <v>81.602000000000004</v>
@@ -2392,12 +2112,12 @@
         <v>68.900000000000006</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B76" s="5">
         <v>83.245999999999995</v>
@@ -2409,12 +2129,12 @@
         <v>83.5</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="B77" s="5">
         <v>80.424000000000007</v>
@@ -2426,12 +2146,12 @@
         <v>83.6</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B78" s="3">
         <v>82.885999999999996</v>
@@ -2443,12 +2163,12 @@
         <v>83.6</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B79" s="5">
         <v>86.012</v>
@@ -2460,12 +2180,12 @@
         <v>83.6</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="B80" s="3">
         <v>83.975999999999999</v>
@@ -2477,12 +2197,12 @@
         <v>83.6</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="B81" s="5">
         <v>81.072000000000003</v>
@@ -2494,12 +2214,12 @@
         <v>86.6</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="B82" s="5">
         <v>81.885999999999996</v>
@@ -2511,12 +2231,12 @@
         <v>86.6</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="B83" s="3">
         <v>85.304000000000002</v>
@@ -2528,12 +2248,12 @@
         <v>86.9</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="B84" s="3">
         <v>83.581999999999994</v>
@@ -2545,12 +2265,12 @@
         <v>87.8</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="B85" s="5">
         <v>84.111999999999995</v>
@@ -2562,12 +2282,12 @@
         <v>87.9</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="B86" s="3">
         <v>75.912000000000006</v>
@@ -2579,12 +2299,12 @@
         <v>88.2</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B87" s="5">
         <v>84.061999999999998</v>
@@ -2596,12 +2316,12 @@
         <v>88.6</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="B88" s="5">
         <v>79.311999999999998</v>
@@ -2613,12 +2333,12 @@
         <v>88.8</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B89" s="3">
         <v>82.834000000000003</v>
@@ -2630,12 +2350,12 @@
         <v>88.8</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B90" s="5">
         <v>80.622</v>
@@ -2647,12 +2367,12 @@
         <v>107.8</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B91" s="3">
         <v>83.013999999999996</v>
@@ -2664,12 +2384,12 @@
         <v>107.8</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B92" s="3">
         <v>85.808000000000007</v>
@@ -2681,12 +2401,12 @@
         <v>118.5</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="B93" s="5">
         <v>78.847999999999999</v>
@@ -2698,12 +2418,12 @@
         <v>126.9</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="B94" s="3">
         <v>82.51</v>
@@ -2715,12 +2435,12 @@
         <v>126.9</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="B95" s="5">
         <v>69.02</v>
@@ -2732,12 +2452,12 @@
         <v>132.9</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="B96" s="3">
         <v>70.37</v>
@@ -2749,12 +2469,12 @@
         <v>132.9</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="B97" s="5">
         <v>69.927999999999997</v>
@@ -2766,12 +2486,12 @@
         <v>133</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="B98" s="3">
         <v>71.585999999999999</v>
@@ -2783,29 +2503,29 @@
         <v>133.1</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D99" s="6">
         <v>138.4</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="B100" s="3">
         <v>73.36</v>
@@ -2817,12 +2537,12 @@
         <v>138.4</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="B101" s="5">
         <v>71.591999999999999</v>
@@ -2834,12 +2554,12 @@
         <v>138.4</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="B102" s="5">
         <v>74.218000000000004</v>
@@ -2851,12 +2571,12 @@
         <v>143.69999999999999</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="B103" s="3">
         <v>72.376000000000005</v>
@@ -2868,12 +2588,12 @@
         <v>143.69999999999999</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B104" s="5">
         <v>80.878</v>
@@ -2885,12 +2605,12 @@
         <v>145</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B105" s="3">
         <v>83.367999999999995</v>
@@ -2902,12 +2622,12 @@
         <v>145</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B106" s="5">
         <v>86.837999999999994</v>
@@ -2919,12 +2639,12 @@
         <v>145</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B107" s="3">
         <v>84.622</v>
@@ -2936,12 +2656,12 @@
         <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B108" s="3">
         <v>84.414000000000001</v>
@@ -2953,12 +2673,12 @@
         <v>197.8</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="B109" s="5">
         <v>79.662000000000006</v>
@@ -2970,12 +2690,12 @@
         <v>304.3</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="B110" s="5">
         <v>85.146000000000001</v>
@@ -2987,12 +2707,12 @@
         <v>304.3</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="B111" s="3">
         <v>88.063999999999993</v>
@@ -3004,12 +2724,12 @@
         <v>305.2</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="B112" s="3">
         <v>76.971999999999994</v>
@@ -3021,12 +2741,12 @@
         <v>306.5</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="B113" s="3">
         <v>85.707999999999998</v>
@@ -3038,12 +2758,12 @@
         <v>632</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="B114" s="5">
         <v>88.552000000000007</v>
@@ -3055,12 +2775,12 @@
         <v>633.5</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B115" s="5">
         <v>88.227999999999994</v>
@@ -3072,12 +2792,12 @@
         <v>644.79999999999995</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B116" s="3">
         <v>86.067999999999998</v>
@@ -3089,7 +2809,7 @@
         <v>644.79999999999995</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3"/>
@@ -3097,12 +2817,13 @@
   <autoFilter ref="A1:E117" xr:uid="{5D614E98-4DDC-4ACC-ACF2-13D7B0807415}">
     <filterColumn colId="1">
       <customFilters>
-        <customFilter operator="greaterThan" val="75"/>
+        <customFilter operator="greaterThan" val="70"/>
       </customFilters>
     </filterColumn>
     <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="lessThan" val="30"/>
+      <customFilters and="1">
+        <customFilter operator="greaterThanOrEqual" val="5"/>
+        <customFilter operator="lessThanOrEqual" val="25"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:E32">
